--- a/LF/TAS/Cote d'Ivoire/Fev 2023/ci_202302_lf_tas1_3_fts_result.xlsx
+++ b/LF/TAS/Cote d'Ivoire/Fev 2023/ci_202302_lf_tas1_3_fts_result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Cote d'Ivoire\Fev 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7747C06-3C01-4DCB-8216-3499E54E4C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -3068,26 +3074,20 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(February 2022) 3. TAS1 FL - Résultat FTS V2</t>
-  </si>
-  <si>
-    <t>ci_lf_tas1_3_fts_result_202202_2</t>
-  </si>
-  <si>
     <t>French</t>
+  </si>
+  <si>
+    <t>ci_202302_lf_tas1_3_fts_result</t>
+  </si>
+  <si>
+    <t>(2023 Dev) 2. TAS1 FL - Résultat FTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3137,158 +3137,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3313,194 +3169,8 @@
         <bgColor rgb="FFFBE4D5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3510,281 +3180,39 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3793,39 +3221,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3838,47 +3255,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3888,28 +3285,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3919,71 +3306,28 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
-      <color rgb="00CCFFCC"/>
-      <color rgb="00CCECFF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFCCECFF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4241,682 +3585,669 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="19.8740740740741" customWidth="1"/>
-    <col min="3" max="3" width="42.6296296296296" style="19" customWidth="1"/>
-    <col min="4" max="4" width="41.2518518518519" customWidth="1"/>
-    <col min="5" max="5" width="47.5037037037037" customWidth="1"/>
-    <col min="6" max="6" width="47.3703703703704" customWidth="1"/>
-    <col min="7" max="7" width="12.6296296296296" customWidth="1"/>
-    <col min="8" max="8" width="16.8740740740741" customWidth="1"/>
-    <col min="9" max="10" width="29.5037037037037" customWidth="1"/>
-    <col min="11" max="11" width="49.3703703703704" style="19" customWidth="1"/>
-    <col min="12" max="12" width="12.6296296296296" customWidth="1"/>
-    <col min="13" max="13" width="9.75555555555556" customWidth="1"/>
-    <col min="14" max="14" width="35.3703703703704" customWidth="1"/>
-    <col min="15" max="15" width="13.8740740740741" customWidth="1"/>
-    <col min="16" max="16" width="36.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="42.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
+    <col min="6" max="6" width="47.375" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="10" width="29.5" customWidth="1"/>
+    <col min="11" max="11" width="49.375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="9.75" customWidth="1"/>
+    <col min="14" max="14" width="35.375" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="16" max="16" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="18" spans="1:17">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="37.5">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="57" spans="1:16">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="63">
+      <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="34" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="22"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:16">
-      <c r="A3" s="24" t="s">
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1">
+      <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="22"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:16">
-      <c r="A4" s="24" t="s">
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="44" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42" t="s">
+      <c r="L4" s="17"/>
+      <c r="M4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:16">
-      <c r="A5" s="24" t="s">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1">
+      <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="44" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42" t="s">
+      <c r="L5" s="17"/>
+      <c r="M5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:16">
-      <c r="A6" s="24" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42" t="s">
+      <c r="L6" s="17"/>
+      <c r="M6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A7" s="24" t="s">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="31.5">
+      <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42" t="s">
+      <c r="L7" s="17"/>
+      <c r="M7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" s="16" customFormat="1" spans="1:13">
-      <c r="A8" s="16" t="s">
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+    </row>
+    <row r="8" spans="1:17" s="13" customFormat="1">
+      <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" s="16" customFormat="1" spans="1:13">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:17" s="13" customFormat="1">
+      <c r="A9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="17" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="31.5">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-    </row>
-    <row r="11" s="17" customFormat="1" spans="1:17">
-      <c r="A11" s="30" t="s">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1">
+      <c r="A11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="45" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="17" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="1" spans="1:16">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:17" s="3" customFormat="1">
+      <c r="A12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-    </row>
-    <row r="13" s="17" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A13" s="17" t="s">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" s="3" customFormat="1" ht="31.5">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="17" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:16">
-      <c r="A14" s="22" t="s">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" s="3" customFormat="1">
+      <c r="A14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="46" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="42"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="45"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="22"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A15" s="22" t="s">
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+    </row>
+    <row r="15" spans="1:17" s="3" customFormat="1" ht="31.5">
+      <c r="A15" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="33"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:16">
-      <c r="A16" s="22" t="s">
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="1:17" s="3" customFormat="1">
+      <c r="A16" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="46" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="33" t="s">
+      <c r="F16" s="31"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="5" t="s">
         <v>91</v>
       </c>
       <c r="L16" s="5"/>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:16">
-      <c r="A17" s="22" t="s">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="1:16" s="3" customFormat="1">
+      <c r="A17" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="46" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="33" t="s">
+      <c r="F17" s="31"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="5" t="s">
         <v>94</v>
       </c>
       <c r="L17" s="5"/>
-      <c r="M17" s="42" t="s">
+      <c r="M17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:16">
-      <c r="A18" s="22" t="s">
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="1:16" s="3" customFormat="1">
+      <c r="A18" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="22" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:16">
-      <c r="A19" s="22" t="s">
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+    </row>
+    <row r="19" spans="1:16" s="3" customFormat="1">
+      <c r="A19" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="46" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="33" t="s">
+      <c r="F19" s="31"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="42" t="s">
+      <c r="L19" s="17"/>
+      <c r="M19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="57" spans="1:16">
-      <c r="A20" s="22" t="s">
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" spans="1:16" s="3" customFormat="1" ht="63">
+      <c r="A20" s="17" t="s">
         <v>103</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="33" t="s">
+      <c r="F20" s="31"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:16">
-      <c r="A21" s="22" t="s">
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+    </row>
+    <row r="21" spans="1:16" s="3" customFormat="1">
+      <c r="A21" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="24" t="s">
         <v>109</v>
       </c>
       <c r="D21" s="7"/>
@@ -4924,29 +4255,29 @@
         <v>110</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="33" t="s">
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="22"/>
-      <c r="M21" s="42" t="s">
+      <c r="L21" s="17"/>
+      <c r="M21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="24" t="s">
         <v>112</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -4962,11 +4293,11 @@
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="5" t="s">
         <v>107</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="42" t="s">
+      <c r="M22" s="17" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="6"/>
@@ -4974,13 +4305,13 @@
       <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="24" t="s">
         <v>89</v>
       </c>
       <c r="D23" s="7"/>
@@ -4992,11 +4323,11 @@
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="33" t="s">
+      <c r="K23" s="5" t="s">
         <v>116</v>
       </c>
       <c r="L23" s="6"/>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="17" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="6"/>
@@ -5004,13 +4335,13 @@
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="17" t="s">
         <v>92</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="24" t="s">
         <v>89</v>
       </c>
       <c r="D24" s="7"/>
@@ -5022,11 +4353,11 @@
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="33" t="s">
+      <c r="K24" s="5" t="s">
         <v>118</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="42" t="s">
+      <c r="M24" s="17" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="6"/>
@@ -5034,13 +4365,13 @@
       <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="17" t="s">
         <v>95</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -5048,10 +4379,10 @@
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="17" t="s">
         <v>97</v>
       </c>
       <c r="M25" s="6"/>
@@ -5059,94 +4390,94 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" s="18" customFormat="1" spans="1:16">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="36" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-    </row>
-    <row r="27" s="19" customFormat="1" spans="1:16">
-      <c r="A27" s="33" t="s">
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" s="14" customFormat="1">
+      <c r="A27" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="49" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="1:16">
-      <c r="A28" s="22" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+    </row>
+    <row r="28" spans="1:16" s="3" customFormat="1">
+      <c r="A28" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="46" t="s">
+      <c r="D28" s="18"/>
+      <c r="E28" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="33" t="s">
+      <c r="F28" s="31"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="42" t="s">
+      <c r="L28" s="17"/>
+      <c r="M28" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-    </row>
-    <row r="29" ht="28.5" spans="1:16">
-      <c r="A29" s="22" t="s">
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+    </row>
+    <row r="29" spans="1:16" ht="31.5">
+      <c r="A29" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="24" t="s">
         <v>128</v>
       </c>
       <c r="D29" s="7"/>
@@ -5158,7 +4489,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="33" t="s">
+      <c r="K29" s="5" t="s">
         <v>130</v>
       </c>
       <c r="L29" s="6"/>
@@ -5168,13 +4499,13 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="17" t="s">
         <v>92</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="24" t="s">
         <v>132</v>
       </c>
       <c r="D30" s="7"/>
@@ -5186,7 +4517,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="7"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="38"/>
+      <c r="K30" s="25"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
@@ -5194,13 +4525,13 @@
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="17" t="s">
         <v>134</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="35"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -5208,7 +4539,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="7"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="38"/>
+      <c r="K31" s="25"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -5216,13 +4547,13 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="17" t="s">
         <v>136</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="35"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="7"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -5230,7 +4561,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="7"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="38"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -5240,27 +4571,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="$A16:$XFD17"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.3703703703704" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="60.3703703703704" customWidth="1"/>
+    <col min="4" max="4" width="60.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5276,17 +4604,17 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
@@ -5300,7 +4628,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>142</v>
       </c>
@@ -5314,7 +4642,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -5328,7 +4656,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -5342,7 +4670,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -5356,7 +4684,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -5370,7 +4698,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -5384,7 +4712,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -5398,7 +4726,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>160</v>
       </c>
@@ -5412,7 +4740,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>160</v>
       </c>
@@ -5426,7 +4754,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -5440,7 +4768,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -5454,7 +4782,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -5468,7 +4796,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -5482,7 +4810,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>182</v>
       </c>
@@ -5496,7 +4824,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>182</v>
       </c>
@@ -5514,2845 +4842,2748 @@
       <c r="A19" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>187</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>188</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>189</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>190</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>191</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>192</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>193</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>194</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>195</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>196</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>197</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>198</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>199</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>200</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>201</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>202</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>203</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>204</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>205</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>206</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>207</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>208</v>
       </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="11" t="s">
         <v>209</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>210</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>211</v>
       </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>212</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>187</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>188</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="11" t="s">
         <v>190</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>214</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="11" t="s">
         <v>191</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="11" t="s">
         <v>192</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="11" t="s">
         <v>215</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="11" t="s">
         <v>194</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>195</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>196</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>197</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="11" t="s">
         <v>216</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>198</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>199</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="11" t="s">
         <v>217</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="11" t="s">
         <v>200</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="11" t="s">
         <v>201</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="11" t="s">
         <v>202</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="11" t="s">
         <v>203</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="11" t="s">
         <v>204</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="11" t="s">
         <v>205</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="11" t="s">
         <v>218</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="11" t="s">
         <v>207</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="11" t="s">
         <v>208</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="11" t="s">
         <v>209</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="11" t="s">
         <v>210</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="11" t="s">
         <v>211</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="11" t="s">
         <v>212</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="12"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="11"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="14"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="3">
         <v>10</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="10">
         <v>10</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="11">
         <v>10</v>
       </c>
       <c r="E76" s="9"/>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="3">
         <v>11</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="10">
         <v>11</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="11">
         <v>11</v>
       </c>
       <c r="E77" s="9"/>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G77" s="15"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="3">
         <v>12</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="10">
         <v>12</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="11">
         <v>12</v>
       </c>
       <c r="E78" s="9"/>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G78" s="15"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="3">
         <v>13</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="10">
         <v>13</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="11">
         <v>13</v>
       </c>
       <c r="E79" s="9"/>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G79" s="15"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="3">
         <v>14</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="10">
         <v>14</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="11">
         <v>14</v>
       </c>
       <c r="E80" s="9"/>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G80" s="15"/>
-    </row>
-    <row r="81" spans="1:7">
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="3">
         <v>15</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="10">
         <v>15</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="11">
         <v>15</v>
       </c>
       <c r="E81" s="9"/>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G81" s="15"/>
-    </row>
-    <row r="82" spans="1:7">
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="3">
         <v>16</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="10">
         <v>16</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="11">
         <v>16</v>
       </c>
       <c r="E82" s="9"/>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G82" s="15"/>
-    </row>
-    <row r="83" spans="1:7">
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="3">
         <v>17</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C83" s="10">
         <v>17</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="11">
         <v>17</v>
       </c>
       <c r="E83" s="9"/>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G83" s="15"/>
-    </row>
-    <row r="84" spans="1:7">
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="3">
         <v>18</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="10">
         <v>18</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="11">
         <v>18</v>
       </c>
       <c r="E84" s="9"/>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G84" s="15"/>
-    </row>
-    <row r="85" spans="1:7">
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="3">
         <v>19</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85" s="10">
         <v>19</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="11">
         <v>19</v>
       </c>
       <c r="E85" s="9"/>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G85" s="15"/>
-    </row>
-    <row r="86" spans="1:7">
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="3">
         <v>20</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="10">
         <v>20</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="11">
         <v>20</v>
       </c>
       <c r="E86" s="9"/>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G86" s="15"/>
-    </row>
-    <row r="87" spans="1:7">
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="3">
         <v>21</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87" s="10">
         <v>21</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D87" s="11">
         <v>21</v>
       </c>
       <c r="E87" s="9"/>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G87" s="15"/>
-    </row>
-    <row r="88" spans="1:7">
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="3">
         <v>22</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="10">
         <v>22</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D88" s="11">
         <v>22</v>
       </c>
       <c r="E88" s="9"/>
-      <c r="F88" s="10" t="s">
+      <c r="F88" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G88" s="15"/>
-    </row>
-    <row r="89" spans="1:7">
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="3">
         <v>23</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="10">
         <v>23</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D89" s="11">
         <v>23</v>
       </c>
       <c r="E89" s="9"/>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G89" s="15"/>
-    </row>
-    <row r="90" spans="1:7">
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="3">
         <v>24</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="10">
         <v>24</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="11">
         <v>24</v>
       </c>
       <c r="E90" s="9"/>
-      <c r="F90" s="10" t="s">
+      <c r="F90" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G90" s="15"/>
-    </row>
-    <row r="91" spans="1:7">
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="3">
         <v>25</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C91" s="10">
         <v>25</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="11">
         <v>25</v>
       </c>
       <c r="E91" s="9"/>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G91" s="15"/>
-    </row>
-    <row r="92" spans="1:7">
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="3">
         <v>26</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="10">
         <v>26</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="11">
         <v>26</v>
       </c>
       <c r="E92" s="9"/>
-      <c r="F92" s="10" t="s">
+      <c r="F92" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G92" s="15"/>
-    </row>
-    <row r="93" spans="1:7">
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="3">
         <v>27</v>
       </c>
-      <c r="C93" s="11">
+      <c r="C93" s="10">
         <v>27</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D93" s="11">
         <v>27</v>
       </c>
       <c r="E93" s="9"/>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G93" s="15"/>
-    </row>
-    <row r="94" spans="1:7">
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="3">
         <v>28</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="10">
         <v>28</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="11">
         <v>28</v>
       </c>
       <c r="E94" s="9"/>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G94" s="15"/>
-    </row>
-    <row r="95" spans="1:7">
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="3">
         <v>29</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C95" s="10">
         <v>29</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D95" s="11">
         <v>29</v>
       </c>
       <c r="E95" s="9"/>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G95" s="15"/>
-    </row>
-    <row r="96" spans="1:7">
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="3">
         <v>30</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="10">
         <v>30</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D96" s="11">
         <v>30</v>
       </c>
       <c r="E96" s="9"/>
-      <c r="F96" s="10" t="s">
+      <c r="F96" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G96" s="15"/>
-    </row>
-    <row r="97" spans="1:7">
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="3">
         <v>31</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C97" s="10">
         <v>31</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D97" s="11">
         <v>31</v>
       </c>
       <c r="E97" s="9"/>
-      <c r="F97" s="10" t="s">
+      <c r="F97" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G97" s="15"/>
-    </row>
-    <row r="98" spans="1:7">
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="3">
         <v>32</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="10">
         <v>32</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D98" s="11">
         <v>32</v>
       </c>
       <c r="E98" s="9"/>
-      <c r="F98" s="10" t="s">
+      <c r="F98" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G98" s="15"/>
-    </row>
-    <row r="99" spans="1:7">
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="3">
         <v>33</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="10">
         <v>33</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D99" s="11">
         <v>33</v>
       </c>
       <c r="E99" s="9"/>
-      <c r="F99" s="10" t="s">
+      <c r="F99" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G99" s="15"/>
-    </row>
-    <row r="100" spans="1:7">
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="3">
         <v>34</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="10">
         <v>34</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D100" s="11">
         <v>34</v>
       </c>
       <c r="E100" s="9"/>
-      <c r="F100" s="10" t="s">
+      <c r="F100" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G100" s="15"/>
-    </row>
-    <row r="101" spans="1:7">
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="3">
         <v>35</v>
       </c>
-      <c r="C101" s="11">
+      <c r="C101" s="10">
         <v>35</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D101" s="11">
         <v>35</v>
       </c>
       <c r="E101" s="9"/>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G101" s="15"/>
-    </row>
-    <row r="102" spans="1:7">
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="3">
         <v>36</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="10">
         <v>36</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="11">
         <v>36</v>
       </c>
       <c r="E102" s="9"/>
-      <c r="F102" s="10" t="s">
+      <c r="F102" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G102" s="15"/>
-    </row>
-    <row r="103" spans="1:7">
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="3">
         <v>37</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C103" s="10">
         <v>37</v>
       </c>
-      <c r="D103" s="12">
+      <c r="D103" s="11">
         <v>37</v>
       </c>
       <c r="E103" s="9"/>
-      <c r="F103" s="10" t="s">
+      <c r="F103" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G103" s="15"/>
-    </row>
-    <row r="104" spans="1:7">
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="3">
         <v>38</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C104" s="10">
         <v>38</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="11">
         <v>38</v>
       </c>
       <c r="E104" s="9"/>
-      <c r="F104" s="10" t="s">
+      <c r="F104" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G104" s="15"/>
-    </row>
-    <row r="105" spans="1:7">
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="9"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="12"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="11"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="15"/>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D106" s="12" t="s">
+      <c r="D106" s="11" t="s">
         <v>220</v>
       </c>
       <c r="E106" s="9"/>
-      <c r="F106" s="10" t="s">
+      <c r="F106" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G106" s="15"/>
-    </row>
-    <row r="107" spans="1:7">
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D107" s="12" t="s">
+      <c r="D107" s="11" t="s">
         <v>221</v>
       </c>
       <c r="E107" s="9"/>
-      <c r="F107" s="10" t="s">
+      <c r="F107" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G107" s="15"/>
-    </row>
-    <row r="108" spans="1:7">
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D108" s="12" t="s">
+      <c r="D108" s="11" t="s">
         <v>222</v>
       </c>
       <c r="E108" s="9"/>
-      <c r="F108" s="10" t="s">
+      <c r="F108" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G108" s="15"/>
-    </row>
-    <row r="109" spans="1:7">
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="D109" s="11" t="s">
         <v>223</v>
       </c>
       <c r="E109" s="9"/>
-      <c r="F109" s="10" t="s">
+      <c r="F109" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G109" s="15"/>
-    </row>
-    <row r="110" spans="1:7">
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D110" s="12" t="s">
+      <c r="D110" s="11" t="s">
         <v>224</v>
       </c>
       <c r="E110" s="9"/>
-      <c r="F110" s="10" t="s">
+      <c r="F110" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G110" s="15"/>
-    </row>
-    <row r="111" spans="1:7">
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D111" s="12" t="s">
+      <c r="D111" s="11" t="s">
         <v>225</v>
       </c>
       <c r="E111" s="9"/>
-      <c r="F111" s="10" t="s">
+      <c r="F111" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G111" s="15"/>
-    </row>
-    <row r="112" spans="1:7">
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D112" s="12" t="s">
+      <c r="D112" s="11" t="s">
         <v>226</v>
       </c>
       <c r="E112" s="9"/>
-      <c r="F112" s="10" t="s">
+      <c r="F112" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G112" s="15"/>
-    </row>
-    <row r="113" spans="1:7">
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="D113" s="11" t="s">
         <v>227</v>
       </c>
       <c r="E113" s="9"/>
-      <c r="F113" s="10" t="s">
+      <c r="F113" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G113" s="15"/>
-    </row>
-    <row r="114" spans="1:7">
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D114" s="12" t="s">
+      <c r="D114" s="11" t="s">
         <v>228</v>
       </c>
       <c r="E114" s="9"/>
-      <c r="F114" s="10" t="s">
+      <c r="F114" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G114" s="15"/>
-    </row>
-    <row r="115" spans="1:7">
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D115" s="12" t="s">
+      <c r="D115" s="11" t="s">
         <v>229</v>
       </c>
       <c r="E115" s="9"/>
-      <c r="F115" s="10" t="s">
+      <c r="F115" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G115" s="15"/>
-    </row>
-    <row r="116" spans="1:7">
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D116" s="12" t="s">
+      <c r="D116" s="11" t="s">
         <v>230</v>
       </c>
       <c r="E116" s="9"/>
-      <c r="F116" s="10" t="s">
+      <c r="F116" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G116" s="15"/>
-    </row>
-    <row r="117" spans="1:7">
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="D117" s="11" t="s">
         <v>231</v>
       </c>
       <c r="E117" s="9"/>
-      <c r="F117" s="10" t="s">
+      <c r="F117" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G117" s="15"/>
-    </row>
-    <row r="118" spans="1:7">
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D118" s="11" t="s">
         <v>232</v>
       </c>
       <c r="E118" s="9"/>
-      <c r="F118" s="10" t="s">
+      <c r="F118" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G118" s="15"/>
-    </row>
-    <row r="119" spans="1:7">
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D119" s="12" t="s">
+      <c r="D119" s="11" t="s">
         <v>233</v>
       </c>
       <c r="E119" s="9"/>
-      <c r="F119" s="10" t="s">
+      <c r="F119" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G119" s="15"/>
-    </row>
-    <row r="120" spans="1:7">
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D120" s="11" t="s">
         <v>234</v>
       </c>
       <c r="E120" s="9"/>
-      <c r="F120" s="10" t="s">
+      <c r="F120" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G120" s="15"/>
-    </row>
-    <row r="121" spans="1:7">
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="D121" s="11" t="s">
         <v>235</v>
       </c>
       <c r="E121" s="9"/>
-      <c r="F121" s="10" t="s">
+      <c r="F121" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G121" s="15"/>
-    </row>
-    <row r="122" spans="1:7">
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D122" s="12" t="s">
+      <c r="D122" s="11" t="s">
         <v>236</v>
       </c>
       <c r="E122" s="9"/>
-      <c r="F122" s="10" t="s">
+      <c r="F122" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G122" s="15"/>
-    </row>
-    <row r="123" spans="1:7">
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D123" s="12" t="s">
+      <c r="D123" s="11" t="s">
         <v>237</v>
       </c>
       <c r="E123" s="9"/>
-      <c r="F123" s="10" t="s">
+      <c r="F123" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G123" s="15"/>
-    </row>
-    <row r="124" spans="1:7">
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D124" s="12" t="s">
+      <c r="D124" s="11" t="s">
         <v>238</v>
       </c>
       <c r="E124" s="9"/>
-      <c r="F124" s="10" t="s">
+      <c r="F124" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G124" s="15"/>
-    </row>
-    <row r="125" spans="1:7">
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D125" s="12" t="s">
+      <c r="D125" s="11" t="s">
         <v>239</v>
       </c>
       <c r="E125" s="9"/>
-      <c r="F125" s="10" t="s">
+      <c r="F125" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G125" s="15"/>
-    </row>
-    <row r="126" spans="1:7">
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D126" s="12" t="s">
+      <c r="D126" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E126" s="9"/>
-      <c r="F126" s="10" t="s">
+      <c r="F126" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G126" s="15"/>
-    </row>
-    <row r="127" spans="1:7">
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D127" s="12" t="s">
+      <c r="D127" s="11" t="s">
         <v>241</v>
       </c>
       <c r="E127" s="9"/>
-      <c r="F127" s="10" t="s">
+      <c r="F127" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G127" s="15"/>
-    </row>
-    <row r="128" spans="1:7">
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="D128" s="11" t="s">
         <v>242</v>
       </c>
       <c r="E128" s="9"/>
-      <c r="F128" s="10" t="s">
+      <c r="F128" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G128" s="15"/>
-    </row>
-    <row r="129" spans="1:7">
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D129" s="12" t="s">
+      <c r="D129" s="11" t="s">
         <v>243</v>
       </c>
       <c r="E129" s="9"/>
-      <c r="F129" s="10" t="s">
+      <c r="F129" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G129" s="15"/>
-    </row>
-    <row r="130" spans="1:7">
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D130" s="12" t="s">
+      <c r="D130" s="11" t="s">
         <v>244</v>
       </c>
       <c r="E130" s="9"/>
-      <c r="F130" s="10" t="s">
+      <c r="F130" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G130" s="15"/>
-    </row>
-    <row r="131" spans="1:7">
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D131" s="12" t="s">
+      <c r="D131" s="11" t="s">
         <v>245</v>
       </c>
       <c r="E131" s="9"/>
-      <c r="F131" s="10" t="s">
+      <c r="F131" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G131" s="15"/>
-    </row>
-    <row r="132" spans="1:7">
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D132" s="12" t="s">
+      <c r="D132" s="11" t="s">
         <v>246</v>
       </c>
       <c r="E132" s="9"/>
-      <c r="F132" s="10" t="s">
+      <c r="F132" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G132" s="15"/>
-    </row>
-    <row r="133" spans="1:7">
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D133" s="12" t="s">
+      <c r="D133" s="11" t="s">
         <v>247</v>
       </c>
       <c r="E133" s="9"/>
-      <c r="F133" s="10" t="s">
+      <c r="F133" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G133" s="15"/>
-    </row>
-    <row r="134" spans="1:7">
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D134" s="12" t="s">
+      <c r="D134" s="11" t="s">
         <v>248</v>
       </c>
       <c r="E134" s="9"/>
-      <c r="F134" s="10" t="s">
+      <c r="F134" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G134" s="15"/>
-    </row>
-    <row r="135" spans="1:7">
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D135" s="12" t="s">
+      <c r="D135" s="11" t="s">
         <v>249</v>
       </c>
       <c r="E135" s="9"/>
-      <c r="F135" s="10" t="s">
+      <c r="F135" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G135" s="15"/>
-    </row>
-    <row r="136" spans="1:7">
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D136" s="12" t="s">
+      <c r="D136" s="11" t="s">
         <v>250</v>
       </c>
       <c r="E136" s="9"/>
-      <c r="F136" s="10" t="s">
+      <c r="F136" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G136" s="15"/>
-    </row>
-    <row r="137" spans="1:7">
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C137" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="D137" s="12" t="s">
+      <c r="D137" s="11" t="s">
         <v>251</v>
       </c>
       <c r="E137" s="9"/>
-      <c r="F137" s="10" t="s">
+      <c r="F137" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G137" s="15"/>
-    </row>
-    <row r="138" spans="1:7">
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C138" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D138" s="12" t="s">
+      <c r="D138" s="11" t="s">
         <v>252</v>
       </c>
       <c r="E138" s="9"/>
-      <c r="F138" s="10" t="s">
+      <c r="F138" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G138" s="15"/>
-    </row>
-    <row r="139" spans="1:7">
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="D139" s="12" t="s">
+      <c r="D139" s="11" t="s">
         <v>253</v>
       </c>
       <c r="E139" s="9"/>
-      <c r="F139" s="10" t="s">
+      <c r="F139" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G139" s="15"/>
-    </row>
-    <row r="140" spans="1:7">
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="D140" s="12" t="s">
+      <c r="D140" s="11" t="s">
         <v>254</v>
       </c>
       <c r="E140" s="9"/>
-      <c r="F140" s="10" t="s">
+      <c r="F140" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G140" s="15"/>
-    </row>
-    <row r="141" spans="1:7">
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C141" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D141" s="12" t="s">
+      <c r="D141" s="11" t="s">
         <v>255</v>
       </c>
       <c r="E141" s="9"/>
-      <c r="F141" s="10" t="s">
+      <c r="F141" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G141" s="15"/>
-    </row>
-    <row r="142" spans="1:7">
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C142" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D142" s="12" t="s">
+      <c r="D142" s="11" t="s">
         <v>256</v>
       </c>
       <c r="E142" s="9"/>
-      <c r="F142" s="10" t="s">
+      <c r="F142" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G142" s="15"/>
-    </row>
-    <row r="143" spans="1:7">
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="C143" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="D143" s="12" t="s">
+      <c r="D143" s="11" t="s">
         <v>257</v>
       </c>
       <c r="E143" s="9"/>
-      <c r="F143" s="10" t="s">
+      <c r="F143" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G143" s="15"/>
-    </row>
-    <row r="144" spans="1:7">
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C144" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D144" s="12" t="s">
+      <c r="D144" s="11" t="s">
         <v>258</v>
       </c>
       <c r="E144" s="9"/>
-      <c r="F144" s="10" t="s">
+      <c r="F144" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G144" s="15"/>
-    </row>
-    <row r="145" spans="1:7">
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C145" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D145" s="12" t="s">
+      <c r="D145" s="11" t="s">
         <v>259</v>
       </c>
       <c r="E145" s="9"/>
-      <c r="F145" s="10" t="s">
+      <c r="F145" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G145" s="15"/>
-    </row>
-    <row r="146" spans="1:7">
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C146" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D146" s="12" t="s">
+      <c r="D146" s="11" t="s">
         <v>260</v>
       </c>
       <c r="E146" s="9"/>
-      <c r="F146" s="10" t="s">
+      <c r="F146" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G146" s="15"/>
-    </row>
-    <row r="147" spans="1:7">
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D147" s="11" t="s">
         <v>261</v>
       </c>
       <c r="E147" s="9"/>
-      <c r="F147" s="10" t="s">
+      <c r="F147" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G147" s="15"/>
-    </row>
-    <row r="148" spans="1:7">
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C148" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D148" s="12" t="s">
+      <c r="D148" s="11" t="s">
         <v>262</v>
       </c>
       <c r="E148" s="9"/>
-      <c r="F148" s="10" t="s">
+      <c r="F148" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G148" s="15"/>
-    </row>
-    <row r="149" spans="1:7">
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C149" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D149" s="12" t="s">
+      <c r="D149" s="11" t="s">
         <v>263</v>
       </c>
       <c r="E149" s="9"/>
-      <c r="F149" s="10" t="s">
+      <c r="F149" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G149" s="15"/>
-    </row>
-    <row r="150" spans="1:7">
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C150" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D150" s="12" t="s">
+      <c r="D150" s="11" t="s">
         <v>264</v>
       </c>
       <c r="E150" s="9"/>
-      <c r="F150" s="10" t="s">
+      <c r="F150" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G150" s="15"/>
-    </row>
-    <row r="151" spans="1:7">
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C151" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D151" s="12" t="s">
+      <c r="D151" s="11" t="s">
         <v>265</v>
       </c>
       <c r="E151" s="9"/>
-      <c r="F151" s="10" t="s">
+      <c r="F151" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G151" s="15"/>
-    </row>
-    <row r="152" spans="1:7">
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C152" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D152" s="12" t="s">
+      <c r="D152" s="11" t="s">
         <v>266</v>
       </c>
       <c r="E152" s="9"/>
-      <c r="F152" s="10" t="s">
+      <c r="F152" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G152" s="15"/>
-    </row>
-    <row r="153" spans="1:7">
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C153" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D153" s="12" t="s">
+      <c r="D153" s="11" t="s">
         <v>267</v>
       </c>
       <c r="E153" s="9"/>
-      <c r="F153" s="10" t="s">
+      <c r="F153" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G153" s="15"/>
-    </row>
-    <row r="154" spans="1:7">
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C154" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D154" s="12" t="s">
+      <c r="D154" s="11" t="s">
         <v>268</v>
       </c>
       <c r="E154" s="9"/>
-      <c r="F154" s="10" t="s">
+      <c r="F154" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G154" s="15"/>
-    </row>
-    <row r="155" spans="1:7">
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C155" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D155" s="12" t="s">
+      <c r="D155" s="11" t="s">
         <v>269</v>
       </c>
       <c r="E155" s="9"/>
-      <c r="F155" s="10" t="s">
+      <c r="F155" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G155" s="15"/>
-    </row>
-    <row r="156" spans="1:7">
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="C156" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D156" s="12" t="s">
+      <c r="D156" s="11" t="s">
         <v>270</v>
       </c>
       <c r="E156" s="9"/>
-      <c r="F156" s="10" t="s">
+      <c r="F156" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G156" s="15"/>
-    </row>
-    <row r="157" spans="1:7">
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="C157" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D157" s="12" t="s">
+      <c r="D157" s="11" t="s">
         <v>271</v>
       </c>
       <c r="E157" s="9"/>
-      <c r="F157" s="10" t="s">
+      <c r="F157" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G157" s="15"/>
-    </row>
-    <row r="158" spans="1:7">
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C158" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D158" s="12" t="s">
+      <c r="D158" s="11" t="s">
         <v>272</v>
       </c>
       <c r="E158" s="9"/>
-      <c r="F158" s="10" t="s">
+      <c r="F158" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G158" s="15"/>
-    </row>
-    <row r="159" spans="1:7">
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D159" s="12" t="s">
+      <c r="D159" s="11" t="s">
         <v>273</v>
       </c>
       <c r="E159" s="9"/>
-      <c r="F159" s="10" t="s">
+      <c r="F159" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G159" s="15"/>
-    </row>
-    <row r="160" spans="1:7">
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D160" s="12" t="s">
+      <c r="D160" s="11" t="s">
         <v>274</v>
       </c>
       <c r="E160" s="9"/>
-      <c r="F160" s="10" t="s">
+      <c r="F160" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G160" s="15"/>
-    </row>
-    <row r="161" spans="1:7">
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D161" s="12" t="s">
+      <c r="D161" s="11" t="s">
         <v>275</v>
       </c>
       <c r="E161" s="9"/>
-      <c r="F161" s="10" t="s">
+      <c r="F161" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G161" s="15"/>
-    </row>
-    <row r="162" spans="1:7">
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D162" s="12" t="s">
+      <c r="D162" s="11" t="s">
         <v>276</v>
       </c>
       <c r="E162" s="9"/>
-      <c r="F162" s="10" t="s">
+      <c r="F162" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G162" s="15"/>
-    </row>
-    <row r="163" spans="1:7">
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D163" s="12" t="s">
+      <c r="D163" s="11" t="s">
         <v>277</v>
       </c>
       <c r="E163" s="9"/>
-      <c r="F163" s="10" t="s">
+      <c r="F163" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G163" s="15"/>
-    </row>
-    <row r="164" spans="1:7">
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="D164" s="12" t="s">
+      <c r="D164" s="11" t="s">
         <v>278</v>
       </c>
       <c r="E164" s="9"/>
-      <c r="F164" s="10" t="s">
+      <c r="F164" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G164" s="15"/>
-    </row>
-    <row r="165" spans="1:7">
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D165" s="12" t="s">
+      <c r="D165" s="11" t="s">
         <v>279</v>
       </c>
       <c r="E165" s="9"/>
-      <c r="F165" s="10" t="s">
+      <c r="F165" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G165" s="15"/>
-    </row>
-    <row r="166" spans="1:7">
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C166" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="D166" s="12" t="s">
+      <c r="D166" s="11" t="s">
         <v>280</v>
       </c>
       <c r="E166" s="9"/>
-      <c r="F166" s="10" t="s">
+      <c r="F166" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G166" s="15"/>
-    </row>
-    <row r="167" spans="1:7">
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C167" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="D167" s="12" t="s">
+      <c r="D167" s="11" t="s">
         <v>281</v>
       </c>
       <c r="E167" s="9"/>
-      <c r="F167" s="10" t="s">
+      <c r="F167" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G167" s="15"/>
-    </row>
-    <row r="168" spans="1:7">
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D168" s="12" t="s">
+      <c r="D168" s="11" t="s">
         <v>282</v>
       </c>
       <c r="E168" s="9"/>
-      <c r="F168" s="10" t="s">
+      <c r="F168" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G168" s="15"/>
-    </row>
-    <row r="169" spans="1:7">
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D169" s="12" t="s">
+      <c r="D169" s="11" t="s">
         <v>283</v>
       </c>
       <c r="E169" s="9"/>
-      <c r="F169" s="10" t="s">
+      <c r="F169" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G169" s="15"/>
-    </row>
-    <row r="170" spans="1:7">
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D170" s="12" t="s">
+      <c r="D170" s="11" t="s">
         <v>284</v>
       </c>
       <c r="E170" s="9"/>
-      <c r="F170" s="10" t="s">
+      <c r="F170" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G170" s="15"/>
-    </row>
-    <row r="171" spans="1:7">
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D171" s="12" t="s">
+      <c r="D171" s="11" t="s">
         <v>285</v>
       </c>
       <c r="E171" s="9"/>
-      <c r="F171" s="10" t="s">
+      <c r="F171" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G171" s="15"/>
-    </row>
-    <row r="172" spans="1:7">
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D172" s="12" t="s">
+      <c r="D172" s="11" t="s">
         <v>286</v>
       </c>
       <c r="E172" s="9"/>
-      <c r="F172" s="10" t="s">
+      <c r="F172" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G172" s="15"/>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="9" t="s">
@@ -20390,7 +19621,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="881" spans="1:6">
+    <row r="881" spans="1:7">
       <c r="A881" s="9" t="s">
         <v>141</v>
       </c>
@@ -20407,7 +19638,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="882" spans="1:6">
+    <row r="882" spans="1:7">
       <c r="A882" s="9" t="s">
         <v>141</v>
       </c>
@@ -20424,7 +19655,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="883" spans="1:6">
+    <row r="883" spans="1:7">
       <c r="A883" s="9" t="s">
         <v>141</v>
       </c>
@@ -20441,7 +19672,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="884" spans="1:6">
+    <row r="884" spans="1:7">
       <c r="A884" s="9" t="s">
         <v>141</v>
       </c>
@@ -20458,7 +19689,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="885" spans="1:6">
+    <row r="885" spans="1:7">
       <c r="A885" s="9" t="s">
         <v>141</v>
       </c>
@@ -20475,7 +19706,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="886" spans="1:6">
+    <row r="886" spans="1:7">
       <c r="A886" s="9" t="s">
         <v>141</v>
       </c>
@@ -20492,7 +19723,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="887" spans="1:6">
+    <row r="887" spans="1:7">
       <c r="A887" s="9" t="s">
         <v>141</v>
       </c>
@@ -20509,7 +19740,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="888" spans="1:6">
+    <row r="888" spans="1:7">
       <c r="A888" s="9" t="s">
         <v>141</v>
       </c>
@@ -20526,7 +19757,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="889" spans="1:6">
+    <row r="889" spans="1:7">
       <c r="A889" s="9" t="s">
         <v>141</v>
       </c>
@@ -20543,7 +19774,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="890" spans="1:6">
+    <row r="890" spans="1:7">
       <c r="A890" s="9" t="s">
         <v>141</v>
       </c>
@@ -20560,7 +19791,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="891" spans="1:6">
+    <row r="891" spans="1:7">
       <c r="A891" s="9" t="s">
         <v>141</v>
       </c>
@@ -20577,7 +19808,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="892" spans="1:6">
+    <row r="892" spans="1:7">
       <c r="A892" s="9" t="s">
         <v>141</v>
       </c>
@@ -20594,7 +19825,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="893" spans="1:6">
+    <row r="893" spans="1:7">
       <c r="A893" s="9" t="s">
         <v>141</v>
       </c>
@@ -34008,28 +33239,26 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A9:C15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C15">
     <sortCondition ref="B9:B15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.1259259259259" customWidth="1"/>
-    <col min="2" max="2" width="28.5037037037037" customWidth="1"/>
+    <col min="1" max="1" width="44.125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -34043,20 +33272,19 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" s="36" customFormat="1">
+      <c r="A2" s="35" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>1012</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1014</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LF/TAS/Cote d'Ivoire/Fev 2023/ci_202302_lf_tas1_3_fts_result.xlsx
+++ b/LF/TAS/Cote d'Ivoire/Fev 2023/ci_202302_lf_tas1_3_fts_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Cote d'Ivoire\Fev 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D078D11B-8982-448D-8963-B24DCE9CC025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541415F1-0790-46D8-AF0B-DD18D94F2E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4346,7 +4346,7 @@
     <t>703 (EPP DEAGBANGOMPLEU)</t>
   </si>
   <si>
-    <t>(2023 Fev) 2. TAS1 FL - Résultat FTS</t>
+    <t>(2023 Fev) 3. TAS1 FL - Résultat FTS</t>
   </si>
 </sst>
 </file>
@@ -38884,7 +38884,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
